--- a/outputs-HGR-r202/g__UMGS403.xlsx
+++ b/outputs-HGR-r202/g__UMGS403.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,38 +636,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85846.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.2367324575990131</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.555780102454742</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.07905060582084716</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1284368341253978</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.555780102454742</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>s__UMGS403 sp900540865</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>s__UMGS403 sp900540865(reject)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/g__UMGS403.xlsx
+++ b/outputs-HGR-r202/g__UMGS403.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,23 +543,23 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83497.fa</t>
+          <t>even_MAG-GUT42494.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2138635098434502</v>
+        <v>0.1368729116294923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7326811538279343</v>
+        <v>0.5368075769905383</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00365459134608469</v>
+        <v>0.2865504489238715</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04980074498253084</v>
+        <v>0.03976906245609783</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7326811538279343</v>
+        <v>0.5368075769905383</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -575,23 +575,23 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84692.fa</t>
+          <t>even_MAG-GUT83497.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2628752352800417</v>
+        <v>0.2138635098434502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5359395462845581</v>
+        <v>0.7326811538279343</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08690887414008353</v>
+        <v>0.00365459134608469</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1142763442953167</v>
+        <v>0.04980074498253084</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5359395462845581</v>
+        <v>0.7326811538279343</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -607,23 +607,23 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84961.fa</t>
+          <t>even_MAG-GUT84692.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.237180542369446</v>
+        <v>0.2628752352800417</v>
       </c>
       <c r="C6" t="n">
-        <v>0.680104666214272</v>
+        <v>0.5359395462845581</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005333531967163839</v>
+        <v>0.08690887414008353</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07738125944911807</v>
+        <v>0.1142763442953167</v>
       </c>
       <c r="F6" t="n">
-        <v>0.680104666214272</v>
+        <v>0.5359395462845581</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -639,30 +639,286 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT84961.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.237180542369446</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.680104666214272</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.005333531967163839</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.07738125944911807</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.680104666214272</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT85846.fa</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>0.2367324575990131</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>0.555780102454742</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.07905060582084716</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
         <v>0.1284368341253978</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F8" t="n">
         <v>0.555780102454742</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>s__UMGS403 sp900540865</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86868.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1521827453187961</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7468038663964579</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.07314185433906981</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.02787153394567618</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7468038663964579</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87486.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1566962179695405</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8107101934560439</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.008381623965623733</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.02421196460879192</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8107101934560439</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87573.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1587534603816748</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7686095639051547</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.04368334275487824</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.02895363295829226</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7686095639051547</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87828.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1552829209846711</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7813144502197739</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.03234210086832374</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.03106052792723145</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.7813144502197739</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88085.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.158648487488989</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7807492628711137</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02994210486351608</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.03066014477638126</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7807492628711137</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88257.fa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1559400091823029</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8054983984675963</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0122448551176565</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.02631673723244421</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8054983984675963</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88679.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1588682386071427</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8011400023107977</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01410215173750918</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.02588960734455033</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8011400023107977</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>s__UMGS403 sp900540865</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>s__UMGS403 sp900540865</t>
         </is>
